--- a/similarities/split_global/harmonic_similarity_timestamps_142.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_142.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,335 +484,363 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['F:min7', 'F:7', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['Ab:maj6', 'F:7', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:01:18.600000', '0:01:26.020000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:01.420000', '0:00:05.910000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=78.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=1.42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:09.740000'), ('0:00:00.780000', '0:00:07.500000')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:21.600000'), ('0:00:08.900000', '0:00:18.920000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=8.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G:min', 'F#:dim7', 'G:min', 'F#:dim7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:00:18.200000', '0:00:23.320000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:27', '0:00:49.860000')]</t>
+          <t>('0:00:00.460000', '0:00:07.620000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=18.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=27.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=0.46</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['Bb', 'Eb:7', 'Bb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:34.380000', '0:00:38.520000')]</t>
+          <t>('0:00:00.459543', '0:00:22.338129')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
+          <t>('0:00:00.400000', '0:00:05.010000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=0.459543</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=0.4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#']]</t>
+          <t>['C:7', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A', 'A/3']]</t>
+          <t>['Ab:7', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:09.100000', '0:00:11.800000')]</t>
+          <t>('0:00:12.503707', '0:00:19.759943')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:27.974807', '0:00:36.196708')]</t>
+          <t>('0:01:55.080000', '0:02:01.030000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=9.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=12.503707</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-170#t=27.974807']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_33</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:min7', 'F:7']]</t>
+          <t>['C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:min7', 'Gb:7']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.810000', '0:00:10.510000')]</t>
+          <t>('0:01:16.585782', '0:01:18.064810')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.210000', '0:00:03.150000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=8.81']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-33#t=1.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'D:min/A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.459543', '0:00:13.717755')]</t>
+          <t>('0:01:34.400000', '0:01:44.480000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:12.540000', '0:00:15.240000')]</t>
+          <t>('0:00:38.620000', '0:00:46.840000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=94.4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=12.54']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -822,364 +850,376 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:22.200000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=13.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.3']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.159256', '0:00:04.874449')]</t>
+          <t>('0:00:44', '0:01:01.060000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-199#t=1.159256']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000')]</t>
+          <t>('0:01:03.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:41.260000', '0:00:44.840000'), ('0:01:04.420000', '0:01:09.700000')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:45.240000', '0:02:00.100000'), ('0:01:55.700000', '0:02:10.980000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=41.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=64.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=105.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=115.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_289</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min', 'C', 'E:min', 'C']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:min', 'C', 'E:min', 'C']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:03.849274', '0:00:22.216258')]</t>
+          <t>('0:00:22.400000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:29.806000', '0:02:43.363000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-289#t=3.849274']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=22.4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-10#t=149.806']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5GjPQ0eI7AgmOnADn1EO6Q</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000')]</t>
+          <t>('0:01:58.180000', '0:02:03.040000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_5</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:min7', 'F:7']]</t>
+          <t>['D:7', 'G', 'C:7', 'G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:min7', 'C:7']]</t>
+          <t>['G:7', 'C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:19.030000', '0:00:22.230000')]</t>
+          <t>('0:00:14.390000', '0:00:31.310000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:29.040000', '0:00:30.520000')]</t>
+          <t>('0:00:12.030000', '0:00:17.460000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=19.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=14.39</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-62#t=29.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=12.03</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'D:7'], ['D:7', 'G:min', 'C:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:min', 'G#:min/B', 'A#:7'], ['A#:7', 'D#:min', 'G#:min/B']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:57.940158', '0:01:02.259070'), ('0:01:00.854263', '0:01:06.566371')]</t>
+          <t>('0:00:10.780000', '0:00:16.280000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:28.340000', '0:00:37.220000'), ('0:00:25.260000', '0:00:34.280000')]</t>
+          <t>('0:00:45.720000', '0:00:49.900000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=57.940158', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=60.854263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=28.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
